--- a/2019暑假实习（有转正）2020应届生秋招岗位整理.xlsx
+++ b/2019暑假实习（有转正）2020应届生秋招岗位整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanqiang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A65834D-B811-4A95-90C1-13789C0927E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C757049-B6F1-4474-8220-022AA9283A21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>岗位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,9 +224,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>自然语言处理工程师实习生（可转正）</t>
-  </si>
-  <si>
     <t>1、监督式学习：分类/匹配/序列标注等，对训练语料收集，清理，标注，特征选择，特征提取，类别体系修改，训练算法改进等；
 2、非监督式学习：聚类/词向量/语言模型等，大数据集的处理，应用到线上任务（比如分类训练书记筛选/基础特征等）；
 3、基础数据结构与核心算法的实现与调优：包括Trie树/自动机/LSM Tree/倒排索引/等基础数据结构，常用算法的C++实现。
@@ -325,12 +322,141 @@
     <t xml:space="preserve">招商2019届春季校园招聘&amp;2020届实习生招聘公告 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>自然语言处理工程师实习生（可转正）今日头条</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【内推校招提前批】2020届毕业生-阿里-人工智能方向 研发岗位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【我们是谁】  
+我们是阿里巴巴—UC事业部旗下的人工智能团队~  
+UC(国内)事业部作为阿里集团全网信息服务的媒体平台，涵盖了浏览器、全网搜索、信息流推荐等产品矩阵，将最好的内容以最好的方式呈现给我们的用户；  
+作为国内第二的搜索引擎，我们沉淀了十年的产品、技术、数据，以及亿级DAU用户的信任；  
+从搜索到推荐、再到智能对话，它们是一脉相承的技术体系、是时代发展到一定阶段的必然结果，智能化团队正是肩负着这样的使命；我们的问答和聊天能力已经赋能了天猫精灵等阿里集团产品，同时也在孵化智能技术驱动的创新型C端产品；  
+如果你错过了搜索和推荐技术高速发展的时代，加入我们吧！未来已来，因为相信，所以看见！  
+【你来了要做什么】  
+1、SDS(spoken dialogue systems)引擎研发：包括面向任务的封闭域对话以及开放域聊天，持续提升人机对话的能力和产品体验；  
+2、QA(问答)引擎研发：基于全网搜索的海量数据以及行业积累，支撑KBQA、PairQA、DeepQA等多级问答系统的演进；  
+3、智能平台研发：智能引擎的平台化沉淀，以及配套的内容平台、运营平台、开放平台等，提升智能业务生产、消费、运营、服务的效率；  
+4、基础架构研发：围绕检索系统、计算平台、存储等基础系统构建的智能化基建体系；以及高可用的分布式服务体系；  
+【你需要具备哪些能力】  
+1、你可以不是计算机科班出身、可以不是硕士博士；但是你要聪明、爱"动手"、热衷于解决挑战性的问题；  
+2、你可能没有深入理解linux、网络、分布式，甚至用惯了Python/Java连c++都不熟；但是能够用你亮眼的成果证明自己超强的学习能力；  
+3、当然我们更希望优秀的你已经有一些小成绩证明了自己，比如ACM的战绩、开源项目的commit、各种建模/机器人/程序设计的C位担当；  
+4、学霸们看这里：如果你的项目涉及检索、推荐、NLP等大数据相关技术，无论是工程还是算法，这里都是你最好的舞台；  
+【工作地】  
+北京、杭州  
+【如何联系我们】  
+请将简历投递至邮箱：emily.cyy@alibaba-inc.com  
+-- </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【美团点评-社招】知识图谱算法实习生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+【岗位职责】基于知识图谱的搜索推荐算法实现，应用于线上产品场景。
+【岗位要求】候选人需掌握自然语言处理和机器学习算法，熟悉知识图谱和搜索推荐方向，熟练使用Python、TensorFlow、Hive SQL、Spark、Git。
+候选人需要至少具备以下一类项目实践经验： – 文本挖掘、信息提取 – 知识图谱表示学习 – ctr预估模型 – 主流推荐算法
+工作地址：北京朝阳望京
+投递邮箱：hr.ai@meituan.com
+投递简历备注好可到岗日期与实习日期哦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSRA-自然语言计算组研究实习生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组别简介
+自然语言计算组集中于多语言文本分析、机器翻译，问答系统、对话系统、社会关系网络和搜素引擎的前沿研究，综合利用专家知识、统计机器学习和神经网络实现创新技术和产品。多年来，该组已经对微软的产品做出了卓越的贡献，包括中日文输入法、英语写作助手、中文对联、英库词典、英库输入法、中文问答系统、中文分词、拼音搜索、情感分析、以及最近引起广泛关注的微软小冰（中国）、Rinna（日本）和Tay（美国）聊天机器人等。
+任职要求
+计算机科学、电子工程、数学或其它相关专业的硕士研究生或博士研究生
+具备坚实的数学基础和解决问题的能力； 具有数据挖掘、机器学习、信息检索、自然语言处理、人工智能、算法博弈论等领域相关知识者优先
+具备优秀的编程能力；
+具有良好的沟通能力和团队协作精神
+具有优秀的英语听说读写能力
+能得到导师的书面同意
+工作时间要求
+3-6个月
+请务必下载并填写申请表（申请表链接：https://www.msra.cn/wp-content/uploads/2017/07/internship_application_form.xlsx)并将其与完整的中英文简历（PDF/Word/Txt/Html形式）一同发送至： MSRAih@microsoft.com，并在邮件标题中注明：自然语言处理组_研究实习生。（请将中英文简历合并为同一个文件，请勿使用压缩包。）
+要了解更多“明日之星实习生计划”，请访问：https://www.msra.cn/zh-cn/connections/academic-programs/tomorrowstars</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>360 智慧城市-自然语言处理工程师！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位描述：
+1.参与或者负责实体识别，信息抽取，语义理解等NLP方面的算法开发和实现；
+2.结合数亿级用户的搜索、浏览、APP、视频等场景数据，应用NLP、ML、DL等技术抽象构建一个大规模异构知识图谱；
+3.熟悉知识图谱中文文本挖掘算法，解决用户画像相关的NLP应用问题，创建数亿用户级别的领域画像，负责基于知识图谱的用户画像系统的研发；
+4.推动知识图谱在其他领域，如智能问答、搜索推荐等方向的应用。
+任职要求：
+1.具备扎实的自然语言、深度学习、数学基础，计算机相关专业优先；
+2.熟悉面向文本的CNN,LSTM,word2Vec等DL模型在实际问题中的应用，精通基于统计的自然语言处理方法和基于句法语法分析的自然处理方法；
+3.在人工智能领域有一定的积累，能够从复杂的业务场景中进行算法选型、算法优化以及不断提升效果；
+4.熟悉Java/ Scala /Python等至少一门编程语言，深刻理解数据结构和算法设计；
+5.有Tensorflow,Caffe2,Theano等深度学习框架与自然语言处理结合实际项目经验者优先；
+6.在计算机学会A类国际期刊会议如ACL、AAAI、IJCAI、NIPS等上发表过第一作者论文优先；
+7.熟悉Hadoop、Spark等大数据计算平台；
+8.良好的沟通能力和组织协调能力，有创新意识。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否(已结束)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达摩院-机器智能技术-NLP-自然语言基础技术 实习生招聘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目简介
+我们是阿里巴巴达摩院语言技术实验室基础技术团队，致力于研究词法、句法、多语言、知识库建设等基础技术，并应用到文本挖掘技术（分类、聚类、情感、问答）以及相关业务（搜索、推荐、客服机器人、国际化等）中，全面支持阿里经济体相关应用的需求，提供的nlp服务目前每日调用超过万亿次。我们努力提升技术、驱动商业，目标是成为最有价值的商业自然语言基础技术团队。 我们在寻找自然语言处理相关实习生，一起深入探索文本背后的含义，挑战业界难题，提升阿里巴巴产品体验，服务亿万用户。 职位内容： 1. 研究自然语言处理相关底层技术（包括但不限于分词、POS、NER、短语结构分析、依存分析、语言模型、语法纠错、知识挖掘与推理等），以及相关平台的实现； 2. 负责面向问答技术和对话系统的query理解模块，垂直领域的知识图谱建设的技术研究和实践； 3. 撰写、发表国际顶级论文，申请专利等。
+领域方向
+自然语言处理
+项目时间
+2018年10月01日 至 2019年12月31日
+项目信息
+工作城市：北京;杭州
+毕业要求：2019年01月01日-2025年12月31日毕业的学生
+投递岗位选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【内推】【实习】腾讯校招实习内推～</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼主所在微信搜索推荐团队，  主要负责微信中搜一搜(微信搜索)和看一看(微信推荐)的研发。 
+靠谱推荐，实习表现优秀有转正机会，欢迎找我内推。 
+对象： 
+2020届应届生 
+岗位： 
+腾讯所有地点，所有岗位内推。 
+内推方式（重要）：  
+1.我觉得简历不错并且方向match的，会直接推到我们组。算法岗位优先。 
+2.不符合1或者1面试后不合适的，我会往公司内部系统推，或者你自己再找其他人推也可以   
+投递方式： 
+简历发送到857059904@qq.com，简历文件名格式：姓名-学校-岗位-手机 
+欢迎大家来和微信一起成长~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -396,10 +522,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
-      <name val="Consolas"/>
+      <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -424,7 +565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,6 +580,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill" vertical="justify"/>
@@ -461,14 +605,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="fill" vertical="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="justify"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,47 +921,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="40.125" customWidth="1"/>
-    <col min="2" max="2" width="57.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.875" style="3" customWidth="1"/>
     <col min="3" max="11" width="12.875" customWidth="1"/>
     <col min="12" max="30" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="1"/>
@@ -839,28 +986,28 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="16.5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>43518</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -883,26 +1030,26 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="16.5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>43518</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -925,30 +1072,30 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="16.5">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>43517</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="1"/>
@@ -976,23 +1123,23 @@
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="8">
+      <c r="B5" s="6"/>
+      <c r="C5" s="9">
         <v>43518</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1015,28 +1162,28 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" spans="1:30" ht="16.5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>43518</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1059,28 +1206,28 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="1:30" ht="16.5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>43518</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1103,28 +1250,28 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" spans="1:30" ht="16.5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>43518</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1147,28 +1294,30 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" spans="1:30" ht="16.5">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="9">
+        <v>43520</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="8">
-        <v>43520</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1194,30 +1343,32 @@
     </row>
     <row r="10" spans="1:30" ht="16.5">
       <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="9">
+        <v>43523</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="8">
-        <v>43523</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="1"/>
+      <c r="G10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1242,30 +1393,30 @@
     </row>
     <row r="11" spans="1:30" ht="16.5">
       <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>43523</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="1"/>
+      <c r="G11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="15"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1290,19 +1441,19 @@
     </row>
     <row r="12" spans="1:30" ht="16.5">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="9">
+        <v>43523</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" s="8">
-        <v>43523</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1332,19 +1483,19 @@
     </row>
     <row r="13" spans="1:30" ht="16.5">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="8">
+        <v>46</v>
+      </c>
+      <c r="C13" s="9">
         <v>43523</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1373,12 +1524,24 @@
       <c r="AD13" s="1"/>
     </row>
     <row r="14" spans="1:30" ht="16.5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="9">
+        <v>43525</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1405,12 +1568,24 @@
       <c r="AD14" s="1"/>
     </row>
     <row r="15" spans="1:30" ht="16.5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="9">
+        <v>43523</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1437,12 +1612,24 @@
       <c r="AD15" s="1"/>
     </row>
     <row r="16" spans="1:30" ht="16.5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="9">
+        <v>43523</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1469,12 +1656,24 @@
       <c r="AD16" s="1"/>
     </row>
     <row r="17" spans="1:30" ht="16.5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="9">
+        <v>43523</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1501,13 +1700,27 @@
       <c r="AD17" s="1"/>
     </row>
     <row r="18" spans="1:30" ht="16.5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="9">
+        <v>43525</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1533,13 +1746,27 @@
       <c r="AD18" s="1"/>
     </row>
     <row r="19" spans="1:30" ht="16.5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="9">
+        <v>43525</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>

--- a/2019暑假实习（有转正）2020应届生秋招岗位整理.xlsx
+++ b/2019暑假实习（有转正）2020应届生秋招岗位整理.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanqiang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanqiang\Desktop\NLP-Interview-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C757049-B6F1-4474-8220-022AA9283A21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C962484-B15A-4D6E-BAD2-2EF0AF082AD5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
   <si>
     <t>岗位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,6 +449,10 @@
 投递方式： 
 简历发送到857059904@qq.com，简历文件名格式：姓名-学校-岗位-手机 
 欢迎大家来和微信一起成长~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>京锐夏令营</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -921,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1792,13 +1796,25 @@
       <c r="AD19" s="1"/>
     </row>
     <row r="20" spans="1:30" ht="16.5">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="9">
+        <v>43528</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>

--- a/2019暑假实习（有转正）2020应届生秋招岗位整理.xlsx
+++ b/2019暑假实习（有转正）2020应届生秋招岗位整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanqiang\Desktop\NLP-Interview-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C962484-B15A-4D6E-BAD2-2EF0AF082AD5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32878038-E9A7-4BBA-AE0C-DA53A9077424}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
   <si>
     <t>岗位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,6 +453,25 @@
   </si>
   <si>
     <t>京锐夏令营</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【校招】【阿里】阿里大文娱2020届春季校园招聘 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">技术沙龙 
+公司简介： 
+阿里大文娱于2016年10月31日正式筹建。作为阿里巴巴集团“快乐+健康”战略中“快乐”产业的载体之一，我们承担着阿里巴巴集团在未来十年乃至更久时间内的重要战略落地的使命，亦是阿里巴巴集团继电子商务、金融、智能物流和云计算业务之后的最新产业布局。阿里大文娱依托优酷、UC两大用户平台引擎，以及阿里影业、阿里音乐、阿里文学、阿里游戏、大麦网等多个垂直业务纵队，形成大文娱生态体系内的一张矩阵联动网络，为行业创造更多价值，为用户提供更好体验。 
+活动简介： 
+阿里大文娱2020届春季校园招聘-技术沙龙活动，是针对2020届技术专业应届生举办的技术主题沙龙分享会。现场邀请到了多位阿里大文娱资深技术专家，与同学们进行零距离互动和交流指导。此外还安排了校友师兄面试分享及现场模拟面试交流环节，助力同学们毕业求职与发展成长。 
+活动安排： 
+时间：2019年3月9日-10日（具体时间另行电话通知） 
+地点：北京、上海、广州（阿里大文娱office） 
+流程：-技术大咖分享 
+-师兄校友面试经验分享 
+-1v1现场模拟面试 
+面向人群：2020届技术专业应届毕业生（毕业时间：2020.1.1-2020.12.31） </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -925,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1840,14 +1859,30 @@
       <c r="AD20" s="1"/>
     </row>
     <row r="21" spans="1:30" ht="16.5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="9">
+        <v>43528</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>

--- a/2019暑假实习（有转正）2020应届生秋招岗位整理.xlsx
+++ b/2019暑假实习（有转正）2020应届生秋招岗位整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanqiang\Desktop\NLP-Interview-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32878038-E9A7-4BBA-AE0C-DA53A9077424}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A927380C-1B39-487E-B706-BED9B1A5F717}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
   <si>
     <t>岗位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
   </si>
   <si>
     <t>搜狐招聘</t>
-  </si>
-  <si>
-    <t>亮点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>北京户口</t>
@@ -472,6 +468,51 @@
 -师兄校友面试经验分享 
 -1v1现场模拟面试 
 面向人群：2020届技术专业应届毕业生（毕业时间：2020.1.1-2020.12.31） </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实习招聘详情和网申入口请访问下面的链接https://mp.weixin.qq.com/s/lbpZMvZ72fohWZQIigqcbw
+微软暑期实习想要内推的学弟学妹们，请发简历到:t-xiche@microsoft.com,简历请命名为：姓名-学校专业-年级-申请岗位，被内推的同学可以免笔试，直接安排面试~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">微软暑期实习内推 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【字节跳动】暑期实习招聘/【字节跳动】暑期实习招聘（可转正）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【算法实习生】职位描述：1、优化内容的排序，提升用户发布内容的转化率；2、优化模型和召回，提升内容的分发效率，改善用户体验；3、对海量文本进行深度分析、抽取事件、情感分析，构建知识图谱；4、搭建和优化推荐、排序系统，提供稳定的线上服务。职位要求：1、优秀的代码能力，掌握常用编程语言和算法；2、对推荐系统、机器学习和大数据处理感兴趣，熟悉其中一项或者多项；3、在文本分析、词性标注、新词发现、词义消歧等领域有丰富经验者优先；4、责任心强，积极主动，有良好的沟通能力和团队合作能力。投递方式：简历发送到 fanchen@bytedance.com实习时间：一周实习3天及以上，连续实习3个月及以上办公地点：北京市东城区东安门大街55号王府世纪2层公司福利：免费三餐下午茶、健身房、住房补贴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLP实习生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有内推名额了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复：已投递</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发短信通知面试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -944,9 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
@@ -970,7 +1009,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -985,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1022,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>11</v>
@@ -1066,7 +1105,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1108,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>16</v>
@@ -1119,7 +1158,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1154,7 +1193,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>16</v>
@@ -1186,19 +1225,19 @@
     </row>
     <row r="6" spans="1:30" ht="16.5">
       <c r="A6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="9">
         <v>43518</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>16</v>
@@ -1230,19 +1269,19 @@
     </row>
     <row r="7" spans="1:30" ht="16.5">
       <c r="A7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="9">
         <v>43518</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>16</v>
@@ -1274,19 +1313,19 @@
     </row>
     <row r="8" spans="1:30" ht="16.5">
       <c r="A8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="9">
         <v>43518</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
@@ -1318,28 +1357,28 @@
     </row>
     <row r="9" spans="1:30" ht="16.5">
       <c r="A9" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="9">
         <v>43520</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1366,32 +1405,32 @@
     </row>
     <row r="10" spans="1:30" ht="16.5">
       <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="C10" s="9">
         <v>43523</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1416,30 +1455,30 @@
     </row>
     <row r="11" spans="1:30" ht="16.5">
       <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="C11" s="9">
         <v>43523</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1464,19 +1503,19 @@
     </row>
     <row r="12" spans="1:30" ht="16.5">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="9">
         <v>43523</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1506,19 +1545,19 @@
     </row>
     <row r="13" spans="1:30" ht="16.5">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="9">
         <v>43523</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1548,19 +1587,19 @@
     </row>
     <row r="14" spans="1:30" ht="16.5">
       <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="C14" s="9">
         <v>43525</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
@@ -1592,19 +1631,19 @@
     </row>
     <row r="15" spans="1:30" ht="16.5">
       <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="C15" s="9">
         <v>43523</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>16</v>
@@ -1636,19 +1675,19 @@
     </row>
     <row r="16" spans="1:30" ht="16.5">
       <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="C16" s="9">
         <v>43523</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>16</v>
@@ -1680,19 +1719,19 @@
     </row>
     <row r="17" spans="1:30" ht="16.5">
       <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="C17" s="9">
         <v>43523</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>16</v>
@@ -1724,19 +1763,19 @@
     </row>
     <row r="18" spans="1:30" ht="16.5">
       <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="C18" s="9">
         <v>43525</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
@@ -1770,19 +1809,19 @@
     </row>
     <row r="19" spans="1:30" ht="16.5">
       <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="C19" s="9">
         <v>43525</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>16</v>
@@ -1816,17 +1855,17 @@
     </row>
     <row r="20" spans="1:30" ht="16.5">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="9">
         <v>43528</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>16</v>
@@ -1860,19 +1899,19 @@
     </row>
     <row r="21" spans="1:30" ht="16.5">
       <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="C21" s="9">
         <v>43528</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>16</v>
@@ -1884,7 +1923,9 @@
         <v>16</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1907,16 +1948,32 @@
       <c r="AD21" s="1"/>
     </row>
     <row r="22" spans="1:30" ht="16.5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="9">
+        <v>43530</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1939,16 +1996,32 @@
       <c r="AD22" s="1"/>
     </row>
     <row r="23" spans="1:30" ht="16.5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="9">
+        <v>43530</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1971,13 +2044,25 @@
       <c r="AD23" s="1"/>
     </row>
     <row r="24" spans="1:30" ht="16.5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="9">
+        <v>43530</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>

--- a/2019暑假实习（有转正）2020应届生秋招岗位整理.xlsx
+++ b/2019暑假实习（有转正）2020应届生秋招岗位整理.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanqiang\Desktop\NLP-Interview-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A927380C-1B39-487E-B706-BED9B1A5F717}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC3BE1F-B69A-4A0C-B8D5-1F28C6989242}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="82">
   <si>
     <t>岗位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,6 +513,33 @@
   </si>
   <si>
     <t>发短信通知面试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里小蜜招20届实习生，转正机会高，算法,开发,NLP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴阿里小蜜团队招聘啦
+阿里小蜜团队围绕着智能对话、智能辅助、智能决策、智能管理4大核心体系通过人工智能技术全面赋能客户服务，引领服务的智能化升级，带来客户体验的极大提升。旗下阿里小蜜家族通过通过自然语言处理和智能对话技术的持续创新和突破，将多轮对话、阅读理解、迁移学习、文本生成、强化学习、多语言、推荐预测等领域的前沿算法技术转化成为智能服务产品的全新体验，服务于阿里生态50多个业务线；围绕着商家生态圈和阿里云生态圈赋能商家和企业，赋能百万商家和全球中小企业；从中国开始走向世界，覆盖英语、葡萄牙语、西班牙语、泰语，赋能AE及Lazada海外业务。同时在学术上已经发表17篇顶级论文，并拥有30多个专利。持续领先使我们一贯的追求，欢迎敢于接受挑战的同学加入我们，一起创造前所未有的智能服务新体验。快来加入我们，加入阿里大家庭！！招聘条件: 计算机、软件、人工智能相关专业，有较强动手能力，毕业时间在2020年1月-2020年12月招聘岗位: 我们组主要面向算法实习生，如果是投开发或者前端的同学在邮件主题中注明，我帮大家转发到研发团队中加分选项: 在NLP领域有积累，有相关论文发表或者开源项目主要贡献者，尤其是对话领域相关的工作地点: 杭州 or 北京，我们组在杭州，如果你要在北京，我可以把你的简历转给阿里小蜜北京团队投递邮箱: alimebot@163.com [我是今年将要入职的学生，还没有企业邮箱，代组内招聘]PS:  对话是NLP领域一个巨大的落地场景，而阿里小蜜家族系列产品赋能多个产品线，带来巨大收益，欢迎大家加入我们pss: 简历请着重介绍项目经历，实习经历，论文经历等邮箱主题命名格式： 姓名-学校年级-专业-投递意向-意向地点， 如 张三-北京大学研二-计算机科学与技术-算法-杭州
+ps:阿里对于应届生来讲是一个相当不错的平台，而且阿里小蜜做的对话系列产品也是自然语言处理领域一个热门方向，组内不光技术强，目前在学术上也有很深的积累，发表17篇顶会论文，拥有30多个专利。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阿里巴巴-算法-实习生招聘 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">面向于2020届应届生，实习表现符合要求可以转正发校招offer。 
+Base北京 广告算法类  
+算法主要涉及但是不限于如下：机器学习、数据挖掘、深度学习、强化学习、自然语言处理等 
+感兴趣的同学可发送简历到 
+ads_alg_recruitment@list.alibaba-inc.com 
+  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -985,7 +1012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
@@ -1873,7 +1902,9 @@
       <c r="G20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2088,12 +2119,24 @@
       <c r="AD24" s="1"/>
     </row>
     <row r="25" spans="1:30" ht="16.5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="9">
+        <v>43535</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2120,12 +2163,22 @@
       <c r="AD25" s="1"/>
     </row>
     <row r="26" spans="1:30" ht="16.5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="9">
+        <v>43535</v>
+      </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>

--- a/2019暑假实习（有转正）2020应届生秋招岗位整理.xlsx
+++ b/2019暑假实习（有转正）2020应届生秋招岗位整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanqiang\Desktop\NLP-Interview-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC3BE1F-B69A-4A0C-B8D5-1F28C6989242}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144CBD26-02EF-4193-A805-36CF7762FDA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
   <si>
     <t>岗位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,10 +516,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>阿里小蜜招20届实习生，转正机会高，算法,开发,NLP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -540,6 +536,26 @@
 感兴趣的同学可发送简历到 
 ads_alg_recruitment@list.alibaba-inc.com 
   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初选未通过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[招实习生·微软亚洲研究院·DKI组]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与Data Knowledge Intelligence组的科学家一起探研黑科技。        • 算法方向：熟悉ML/DL/RL/NLP，有较强的模型实现能力/有较强的写作能力。        • 研发方向：前后端开发/大数据，有较强的工程实现能力。时间要求：至少能实习6个月、每周至少四天。简历发到 puzhao@microsoft.com ，欢迎自荐与推荐。简历通过后会发送笔试题，请注意查收。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -627,19 +643,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -651,8 +673,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -705,12 +730,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1012,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1433,7 +1459,7 @@
       <c r="AD9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="16.5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -1721,7 +1747,9 @@
       <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1765,7 +1793,9 @@
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1883,7 +1913,7 @@
       <c r="AD19" s="1"/>
     </row>
     <row r="20" spans="1:30" ht="16.5">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="2"/>
@@ -1903,10 +1933,12 @@
         <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1929,7 +1961,7 @@
       <c r="AD20" s="1"/>
     </row>
     <row r="21" spans="1:30" ht="16.5">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -2048,7 +2080,9 @@
       <c r="G23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
         <v>75</v>
@@ -2120,10 +2154,10 @@
     </row>
     <row r="25" spans="1:30" ht="16.5">
       <c r="A25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="C25" s="9">
         <v>43535</v>
@@ -2164,15 +2198,17 @@
     </row>
     <row r="26" spans="1:30" ht="16.5">
       <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="C26" s="9">
         <v>43535</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>44</v>
       </c>
@@ -2205,13 +2241,25 @@
       <c r="AD26" s="1"/>
     </row>
     <row r="27" spans="1:30" ht="16.5">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9">
+        <v>43539</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>

--- a/2019暑假实习（有转正）2020应届生秋招岗位整理.xlsx
+++ b/2019暑假实习（有转正）2020应届生秋招岗位整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanqiang\Desktop\NLP-Interview-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144CBD26-02EF-4193-A805-36CF7762FDA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A6CDD3-7E36-412E-8C5E-9E2385790F43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
   <si>
     <t>岗位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,6 +556,10 @@
   </si>
   <si>
     <t>与Data Knowledge Intelligence组的科学家一起探研黑科技。        • 算法方向：熟悉ML/DL/RL/NLP，有较强的模型实现能力/有较强的写作能力。        • 研发方向：前后端开发/大数据，有较强的工程实现能力。时间要求：至少能实习6个月、每周至少四天。简历发到 puzhao@microsoft.com ，欢迎自荐与推荐。简历通过后会发送笔试题，请注意查收。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很惨，但是发现了自己的很多问题，重新定义了面试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,6 +736,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1038,15 +1051,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="40.125" customWidth="1"/>
     <col min="2" max="2" width="32.875" style="3" customWidth="1"/>
-    <col min="3" max="11" width="12.875" customWidth="1"/>
+    <col min="3" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="19" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
     <col min="12" max="30" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1078,7 +1093,7 @@
       <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="17" t="s">
         <v>73</v>
       </c>
       <c r="K1" s="1"/>
@@ -1124,7 +1139,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="15"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1166,7 +1181,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="15"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1212,7 +1227,7 @@
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="1"/>
@@ -1256,7 +1271,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1300,7 +1315,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1344,7 +1359,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1388,7 +1403,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1436,7 +1451,7 @@
         <v>58</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1484,7 +1499,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="18" t="s">
         <v>42</v>
       </c>
       <c r="K10" s="1"/>
@@ -1532,7 +1547,7 @@
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="18" t="s">
         <v>42</v>
       </c>
       <c r="K11" s="1"/>
@@ -1576,7 +1591,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1618,7 +1633,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1662,7 +1677,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1706,7 +1721,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1752,7 +1767,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1798,7 +1813,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="18"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1844,7 +1859,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1890,7 +1905,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1936,7 +1951,7 @@
         <v>81</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="18" t="s">
         <v>82</v>
       </c>
       <c r="K20" s="1"/>
@@ -1986,7 +2001,7 @@
         <v>16</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="18" t="s">
         <v>76</v>
       </c>
       <c r="K21" s="1"/>
@@ -2034,7 +2049,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="18" t="s">
         <v>74</v>
       </c>
       <c r="K22" s="1"/>
@@ -2084,7 +2099,7 @@
         <v>83</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="18" t="s">
         <v>75</v>
       </c>
       <c r="K23" s="1"/>
@@ -2130,7 +2145,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2174,7 +2189,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2218,7 +2233,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2260,9 +2275,13 @@
       <c r="G27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2294,7 +2313,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="18"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2326,7 +2345,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="18"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2358,7 +2377,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="18"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2390,7 +2409,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="18"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2422,7 +2441,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="18"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2454,7 +2473,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="18"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2486,7 +2505,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="18"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2518,7 +2537,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="18"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2550,7 +2569,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="18"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2582,7 +2601,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="18"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2614,7 +2633,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="18"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2646,7 +2665,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="18"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2678,7 +2697,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="18"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2710,7 +2729,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="18"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2742,7 +2761,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="18"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2774,7 +2793,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="18"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2806,7 +2825,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="J44" s="18"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2838,7 +2857,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="J45" s="18"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2870,7 +2889,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="J46" s="18"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2902,7 +2921,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="J47" s="18"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2934,7 +2953,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="J48" s="18"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -2966,7 +2985,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="18"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -2998,7 +3017,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="J50" s="18"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3030,7 +3049,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="J51" s="18"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3062,7 +3081,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="J52" s="18"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -3094,7 +3113,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="J53" s="18"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3126,7 +3145,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="J54" s="18"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3158,7 +3177,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="J55" s="18"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3190,7 +3209,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="J56" s="18"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3222,7 +3241,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="J57" s="18"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3254,7 +3273,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="J58" s="18"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3286,7 +3305,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="J59" s="18"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3318,7 +3337,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="J60" s="18"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3350,7 +3369,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="J61" s="18"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3382,7 +3401,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="J62" s="18"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3414,7 +3433,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="J63" s="18"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3446,7 +3465,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="J64" s="18"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3478,7 +3497,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="J65" s="18"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3510,7 +3529,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="J66" s="18"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3542,7 +3561,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="J67" s="18"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -3574,7 +3593,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="J68" s="18"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -3606,7 +3625,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="J69" s="18"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -3638,7 +3657,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="J70" s="18"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -3670,7 +3689,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="J71" s="18"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -3702,7 +3721,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="J72" s="18"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -3734,7 +3753,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="J73" s="18"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -3766,7 +3785,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="J74" s="18"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -3798,7 +3817,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="J75" s="18"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -3830,7 +3849,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="J76" s="18"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -3862,7 +3881,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="J77" s="18"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -3894,7 +3913,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="J78" s="18"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -3926,7 +3945,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="J79" s="18"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -3958,7 +3977,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+      <c r="J80" s="18"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
@@ -3990,7 +4009,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+      <c r="J81" s="18"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -4022,7 +4041,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
+      <c r="J82" s="18"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -4054,7 +4073,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
+      <c r="J83" s="18"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
@@ -4086,7 +4105,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="J84" s="18"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
@@ -4118,7 +4137,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="J85" s="18"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
@@ -4150,7 +4169,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
+      <c r="J86" s="18"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
@@ -4182,7 +4201,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
+      <c r="J87" s="18"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -4214,7 +4233,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
+      <c r="J88" s="18"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
@@ -4246,7 +4265,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="J89" s="18"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -4278,7 +4297,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="J90" s="18"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -4310,7 +4329,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="J91" s="18"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -4342,7 +4361,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
+      <c r="J92" s="18"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -4374,7 +4393,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="J93" s="18"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -4406,7 +4425,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
+      <c r="J94" s="18"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -4438,7 +4457,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
+      <c r="J95" s="18"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -4470,7 +4489,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
+      <c r="J96" s="18"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -4502,7 +4521,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
+      <c r="J97" s="18"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -4534,7 +4553,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="J98" s="18"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
@@ -4566,7 +4585,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="J99" s="18"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
@@ -4598,7 +4617,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
+      <c r="J100" s="18"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
@@ -4630,7 +4649,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="J101" s="18"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
@@ -4662,7 +4681,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
+      <c r="J102" s="18"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -4694,7 +4713,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="J103" s="18"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
@@ -4726,7 +4745,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="J104" s="18"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
@@ -4758,7 +4777,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="J105" s="18"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
@@ -4790,7 +4809,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
+      <c r="J106" s="18"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
@@ -4822,7 +4841,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
+      <c r="J107" s="18"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
@@ -4854,7 +4873,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
+      <c r="J108" s="18"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
@@ -4886,7 +4905,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
+      <c r="J109" s="18"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
@@ -4918,7 +4937,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
+      <c r="J110" s="18"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
@@ -4950,7 +4969,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="J111" s="18"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
@@ -4982,7 +5001,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
+      <c r="J112" s="18"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
@@ -5014,7 +5033,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="J113" s="18"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
@@ -5046,7 +5065,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
+      <c r="J114" s="18"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
@@ -5078,7 +5097,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="J115" s="18"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
@@ -5110,7 +5129,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
+      <c r="J116" s="18"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
@@ -5142,7 +5161,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
+      <c r="J117" s="18"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
@@ -5174,7 +5193,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
+      <c r="J118" s="18"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
@@ -5206,7 +5225,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
+      <c r="J119" s="18"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
@@ -5238,7 +5257,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
+      <c r="J120" s="18"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
@@ -5270,7 +5289,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
+      <c r="J121" s="18"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
@@ -5302,7 +5321,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="J122" s="18"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
@@ -5334,7 +5353,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
+      <c r="J123" s="18"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
@@ -5366,7 +5385,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
+      <c r="J124" s="18"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
@@ -5398,7 +5417,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
+      <c r="J125" s="18"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
@@ -5430,7 +5449,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
+      <c r="J126" s="18"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
@@ -5462,7 +5481,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
+      <c r="J127" s="18"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
@@ -5494,7 +5513,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
+      <c r="J128" s="18"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
@@ -5526,7 +5545,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
+      <c r="J129" s="18"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
@@ -5558,7 +5577,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
+      <c r="J130" s="18"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
@@ -5590,7 +5609,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
+      <c r="J131" s="18"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
@@ -5622,7 +5641,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
+      <c r="J132" s="18"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
@@ -5654,7 +5673,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
+      <c r="J133" s="18"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
@@ -5686,7 +5705,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
+      <c r="J134" s="18"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
@@ -5718,7 +5737,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
+      <c r="J135" s="18"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
@@ -5750,7 +5769,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
+      <c r="J136" s="18"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
@@ -5782,7 +5801,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
+      <c r="J137" s="18"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
@@ -5814,7 +5833,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
+      <c r="J138" s="18"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
@@ -5846,7 +5865,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
+      <c r="J139" s="18"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
@@ -5878,7 +5897,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
+      <c r="J140" s="18"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
@@ -5910,7 +5929,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
+      <c r="J141" s="18"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
@@ -5942,7 +5961,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
+      <c r="J142" s="18"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
@@ -5974,7 +5993,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
+      <c r="J143" s="18"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
@@ -6006,7 +6025,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
+      <c r="J144" s="18"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
@@ -6038,7 +6057,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
+      <c r="J145" s="18"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
@@ -6070,7 +6089,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
+      <c r="J146" s="18"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
@@ -6102,7 +6121,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
+      <c r="J147" s="18"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
@@ -6134,7 +6153,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
+      <c r="J148" s="18"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
@@ -6166,7 +6185,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
+      <c r="J149" s="18"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
@@ -6198,7 +6217,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
+      <c r="J150" s="18"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
@@ -6230,7 +6249,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
+      <c r="J151" s="18"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
@@ -6262,7 +6281,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
+      <c r="J152" s="18"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
@@ -6294,7 +6313,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
+      <c r="J153" s="18"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
@@ -6326,7 +6345,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
+      <c r="J154" s="18"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
@@ -6358,7 +6377,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
+      <c r="J155" s="18"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
@@ -6390,7 +6409,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
+      <c r="J156" s="18"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
@@ -6422,7 +6441,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
+      <c r="J157" s="18"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
@@ -6454,7 +6473,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
+      <c r="J158" s="18"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
@@ -6486,7 +6505,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
+      <c r="J159" s="18"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
@@ -6518,7 +6537,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
+      <c r="J160" s="18"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
@@ -6550,7 +6569,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
+      <c r="J161" s="18"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
@@ -6582,7 +6601,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
+      <c r="J162" s="18"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
@@ -6614,7 +6633,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
+      <c r="J163" s="18"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
@@ -6646,7 +6665,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
+      <c r="J164" s="18"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
@@ -6678,7 +6697,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
+      <c r="J165" s="18"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
@@ -6710,7 +6729,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
+      <c r="J166" s="18"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
@@ -6742,7 +6761,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
+      <c r="J167" s="18"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
@@ -6774,7 +6793,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
+      <c r="J168" s="18"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
@@ -6806,7 +6825,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
+      <c r="J169" s="18"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
@@ -6838,7 +6857,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
+      <c r="J170" s="18"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
@@ -6870,7 +6889,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
+      <c r="J171" s="18"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
@@ -6902,7 +6921,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
+      <c r="J172" s="18"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
@@ -6934,7 +6953,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
+      <c r="J173" s="18"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
@@ -6966,7 +6985,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
+      <c r="J174" s="18"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
@@ -6998,7 +7017,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
+      <c r="J175" s="18"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
@@ -7030,7 +7049,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
+      <c r="J176" s="18"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
@@ -7062,7 +7081,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
+      <c r="J177" s="18"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
@@ -7094,7 +7113,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
+      <c r="J178" s="18"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
@@ -7126,7 +7145,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
+      <c r="J179" s="18"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
@@ -7158,7 +7177,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
+      <c r="J180" s="18"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
@@ -7190,7 +7209,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
+      <c r="J181" s="18"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
@@ -7222,7 +7241,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
+      <c r="J182" s="18"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
@@ -7254,7 +7273,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
+      <c r="J183" s="18"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
@@ -7286,7 +7305,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
+      <c r="J184" s="18"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
@@ -7318,7 +7337,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
+      <c r="J185" s="18"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
@@ -7350,7 +7369,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
+      <c r="J186" s="18"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
@@ -7382,7 +7401,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
+      <c r="J187" s="18"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
@@ -7414,7 +7433,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
+      <c r="J188" s="18"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
@@ -7446,7 +7465,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
+      <c r="J189" s="18"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
@@ -7478,7 +7497,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
+      <c r="J190" s="18"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
@@ -7510,7 +7529,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
+      <c r="J191" s="18"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
@@ -7542,7 +7561,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
+      <c r="J192" s="18"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
@@ -7574,7 +7593,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
+      <c r="J193" s="18"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
@@ -7606,7 +7625,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
+      <c r="J194" s="18"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
@@ -7638,7 +7657,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
-      <c r="J195" s="1"/>
+      <c r="J195" s="18"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
@@ -7670,7 +7689,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
+      <c r="J196" s="18"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
@@ -7702,7 +7721,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
+      <c r="J197" s="18"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
@@ -7734,7 +7753,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
+      <c r="J198" s="18"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
@@ -7766,7 +7785,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
+      <c r="J199" s="18"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
@@ -7798,7 +7817,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
+      <c r="J200" s="18"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>

--- a/2019暑假实习（有转正）2020应届生秋招岗位整理.xlsx
+++ b/2019暑假实习（有转正）2020应届生秋招岗位整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanqiang\Desktop\NLP-Interview-Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanqiang/Documents/NLP-Interview-Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A6CDD3-7E36-412E-8C5E-9E2385790F43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929222E4-2CCF-504F-A43A-E891663020A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>岗位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
   </si>
   <si>
     <t>搜狐招聘</t>
-  </si>
-  <si>
-    <t>北京户口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>阿里巴巴新零售CBU技术部20届实习招聘</t>
@@ -275,10 +271,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BAT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2020届实习生招聘 
 网申截止时间： 
 2019年6月30日 18:00（岗位有限，请尽早申请） 
@@ -512,10 +504,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>发短信通知面试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>阿里小蜜招20届实习生，转正机会高，算法,开发,NLP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -560,6 +548,38 @@
   </si>
   <si>
     <t>很惨，但是发现了自己的很多问题，重新定义了面试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软小冰自然语言处理实习生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLP各种算法、TensorFlow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了一套题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想研究院-知识图谱实习生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想研究院-自动问答</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试不理想</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试较为理想</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发短信通知面试，二面未通过</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -685,7 +705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,6 +765,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1052,20 +1075,20 @@
   <dimension ref="A1:AD200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.125" customWidth="1"/>
-    <col min="2" max="2" width="32.875" style="3" customWidth="1"/>
-    <col min="3" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="19" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
-    <col min="12" max="30" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" style="3" customWidth="1"/>
+    <col min="3" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="12" max="30" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5">
+    <row r="1" spans="1:30" ht="16">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -1094,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1117,7 +1140,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" ht="16.5">
+    <row r="2" spans="1:30" ht="16">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>11</v>
@@ -1161,7 +1184,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="16.5">
+    <row r="3" spans="1:30" ht="16">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -1175,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1203,7 +1226,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="16.5">
+    <row r="4" spans="1:30" ht="16">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1217,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>16</v>
@@ -1227,9 +1250,7 @@
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="J4" s="17"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1251,7 +1272,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="16.5">
+    <row r="5" spans="1:30" ht="16">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1263,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>16</v>
@@ -1293,21 +1314,21 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="16.5">
+    <row r="6" spans="1:30" ht="16">
       <c r="A6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="C6" s="9">
         <v>43518</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>16</v>
@@ -1337,21 +1358,21 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="16.5">
+    <row r="7" spans="1:30" ht="16">
       <c r="A7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="9">
         <v>43518</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>16</v>
@@ -1381,21 +1402,21 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="16.5">
+    <row r="8" spans="1:30" ht="16">
       <c r="A8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="9">
         <v>43518</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
@@ -1425,30 +1446,30 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" ht="16.5">
+    <row r="9" spans="1:30" ht="16">
       <c r="A9" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="9">
         <v>43520</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="18"/>
@@ -1473,35 +1494,33 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" ht="16.5">
+    <row r="10" spans="1:30" ht="16">
       <c r="A10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="C10" s="9">
         <v>43523</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="18" t="s">
-        <v>42</v>
-      </c>
+      <c r="J10" s="18"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1523,33 +1542,31 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" ht="16.5">
+    <row r="11" spans="1:30" ht="16">
       <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="C11" s="9">
         <v>43523</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G11" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="18" t="s">
-        <v>42</v>
-      </c>
+      <c r="J11" s="18"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1571,21 +1588,21 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="16.5">
+    <row r="12" spans="1:30" ht="16">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="9">
         <v>43523</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1613,21 +1630,21 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="16.5">
+    <row r="13" spans="1:30" ht="16">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="9">
         <v>43523</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1655,21 +1672,21 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" ht="16.5">
+    <row r="14" spans="1:30" ht="16">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="9">
         <v>43525</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
@@ -1699,21 +1716,21 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" ht="16.5">
+    <row r="15" spans="1:30" ht="16">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="9">
         <v>43523</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>16</v>
@@ -1743,21 +1760,21 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="16.5">
+    <row r="16" spans="1:30" ht="16">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="9">
         <v>43523</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>16</v>
@@ -1789,21 +1806,21 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" ht="16.5">
+    <row r="17" spans="1:30" ht="16">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="9">
         <v>43523</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>16</v>
@@ -1835,21 +1852,21 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" ht="16.5">
+    <row r="18" spans="1:30" ht="16">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="9">
         <v>43525</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
@@ -1881,21 +1898,21 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" ht="16.5">
+    <row r="19" spans="1:30" ht="16">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="9">
         <v>43525</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>16</v>
@@ -1927,19 +1944,19 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" ht="16.5">
+    <row r="20" spans="1:30" ht="16">
       <c r="A20" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="9">
         <v>43528</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>16</v>
@@ -1948,11 +1965,11 @@
         <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1975,21 +1992,21 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="16.5">
+    <row r="21" spans="1:30" ht="16">
       <c r="A21" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" s="9">
         <v>43528</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>16</v>
@@ -2002,7 +2019,7 @@
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="18" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2025,21 +2042,21 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" ht="16.5">
+    <row r="22" spans="1:30" ht="16">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C22" s="9">
         <v>43530</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>16</v>
@@ -2050,7 +2067,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2073,21 +2090,21 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" ht="16.5">
+    <row r="23" spans="1:30" ht="16">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="9">
         <v>43530</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>16</v>
@@ -2096,11 +2113,11 @@
         <v>16</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -2123,21 +2140,21 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" ht="16.5">
+    <row r="24" spans="1:30" ht="16">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" s="9">
         <v>43530</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="14" t="s">
@@ -2167,21 +2184,21 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" ht="16.5">
+    <row r="25" spans="1:30" ht="16">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C25" s="9">
         <v>43535</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>16</v>
@@ -2211,21 +2228,21 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" ht="16.5">
+    <row r="26" spans="1:30" ht="16">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C26" s="9">
         <v>43535</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>16</v>
@@ -2255,21 +2272,21 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" ht="16.5">
+    <row r="27" spans="1:30" ht="16">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C27" s="9">
         <v>43539</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="14" t="s">
@@ -2280,7 +2297,7 @@
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2303,17 +2320,33 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" ht="16.5">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+    <row r="28" spans="1:30" ht="16">
+      <c r="A28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="20">
+        <v>43545</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="18"/>
+      <c r="J28" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2335,17 +2368,33 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" ht="16.5">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:30" ht="16">
+      <c r="A29" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="C29" s="20">
+        <v>43559</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="18"/>
+      <c r="J29" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2367,17 +2416,33 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" ht="16.5">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:30" ht="16">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="C30" s="20">
+        <v>43573</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="18"/>
+      <c r="J30" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2399,7 +2464,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="16.5">
+    <row r="31" spans="1:30" ht="16">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -2431,7 +2496,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="16.5">
+    <row r="32" spans="1:30" ht="16">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -2463,7 +2528,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" ht="16.5">
+    <row r="33" spans="1:30" ht="16">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -2495,7 +2560,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" ht="16.5">
+    <row r="34" spans="1:30" ht="16">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -2527,7 +2592,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" ht="16.5">
+    <row r="35" spans="1:30" ht="16">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -2559,7 +2624,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" ht="16.5">
+    <row r="36" spans="1:30" ht="16">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -2591,7 +2656,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" ht="16.5">
+    <row r="37" spans="1:30" ht="16">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -2623,7 +2688,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" ht="16.5">
+    <row r="38" spans="1:30" ht="16">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -2655,7 +2720,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" ht="16.5">
+    <row r="39" spans="1:30" ht="16">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -2687,7 +2752,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="16.5">
+    <row r="40" spans="1:30" ht="16">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -2719,7 +2784,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="16.5">
+    <row r="41" spans="1:30" ht="16">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -2751,7 +2816,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" ht="16.5">
+    <row r="42" spans="1:30" ht="16">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -2783,7 +2848,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" ht="16.5">
+    <row r="43" spans="1:30" ht="16">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -2815,7 +2880,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" ht="16.5">
+    <row r="44" spans="1:30" ht="16">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -2847,7 +2912,7 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" ht="16.5">
+    <row r="45" spans="1:30" ht="16">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -2879,7 +2944,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" ht="16.5">
+    <row r="46" spans="1:30" ht="16">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -2911,7 +2976,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" ht="16.5">
+    <row r="47" spans="1:30" ht="16">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -2943,7 +3008,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" ht="16.5">
+    <row r="48" spans="1:30" ht="16">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -2975,7 +3040,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="1:30" ht="16.5">
+    <row r="49" spans="1:30" ht="16">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -3007,7 +3072,7 @@
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
     </row>
-    <row r="50" spans="1:30" ht="16.5">
+    <row r="50" spans="1:30" ht="16">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -3039,7 +3104,7 @@
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
     </row>
-    <row r="51" spans="1:30" ht="16.5">
+    <row r="51" spans="1:30" ht="16">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -3071,7 +3136,7 @@
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
     </row>
-    <row r="52" spans="1:30" ht="16.5">
+    <row r="52" spans="1:30" ht="16">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -3103,7 +3168,7 @@
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="1:30" ht="16.5">
+    <row r="53" spans="1:30" ht="16">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -3135,7 +3200,7 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
     </row>
-    <row r="54" spans="1:30" ht="16.5">
+    <row r="54" spans="1:30" ht="16">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -3167,7 +3232,7 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
     </row>
-    <row r="55" spans="1:30" ht="16.5">
+    <row r="55" spans="1:30" ht="16">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -3199,7 +3264,7 @@
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
     </row>
-    <row r="56" spans="1:30" ht="16.5">
+    <row r="56" spans="1:30" ht="16">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -3231,7 +3296,7 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="1:30" ht="16.5">
+    <row r="57" spans="1:30" ht="16">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -3263,7 +3328,7 @@
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
     </row>
-    <row r="58" spans="1:30" ht="16.5">
+    <row r="58" spans="1:30" ht="16">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -3295,7 +3360,7 @@
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
     </row>
-    <row r="59" spans="1:30" ht="16.5">
+    <row r="59" spans="1:30" ht="16">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -3327,7 +3392,7 @@
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
     </row>
-    <row r="60" spans="1:30" ht="16.5">
+    <row r="60" spans="1:30" ht="16">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -3359,7 +3424,7 @@
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
     </row>
-    <row r="61" spans="1:30" ht="16.5">
+    <row r="61" spans="1:30" ht="16">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -3391,7 +3456,7 @@
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
     </row>
-    <row r="62" spans="1:30" ht="16.5">
+    <row r="62" spans="1:30" ht="16">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -3423,7 +3488,7 @@
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
     </row>
-    <row r="63" spans="1:30" ht="16.5">
+    <row r="63" spans="1:30" ht="16">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -3455,7 +3520,7 @@
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
     </row>
-    <row r="64" spans="1:30" ht="16.5">
+    <row r="64" spans="1:30" ht="16">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -3487,7 +3552,7 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
     </row>
-    <row r="65" spans="1:30" ht="16.5">
+    <row r="65" spans="1:30" ht="16">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -3519,7 +3584,7 @@
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
     </row>
-    <row r="66" spans="1:30" ht="16.5">
+    <row r="66" spans="1:30" ht="16">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -3551,7 +3616,7 @@
       <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
     </row>
-    <row r="67" spans="1:30" ht="16.5">
+    <row r="67" spans="1:30" ht="16">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -3583,7 +3648,7 @@
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
     </row>
-    <row r="68" spans="1:30" ht="16.5">
+    <row r="68" spans="1:30" ht="16">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -3615,7 +3680,7 @@
       <c r="AC68" s="1"/>
       <c r="AD68" s="1"/>
     </row>
-    <row r="69" spans="1:30" ht="16.5">
+    <row r="69" spans="1:30" ht="16">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -3647,7 +3712,7 @@
       <c r="AC69" s="1"/>
       <c r="AD69" s="1"/>
     </row>
-    <row r="70" spans="1:30" ht="16.5">
+    <row r="70" spans="1:30" ht="16">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -3679,7 +3744,7 @@
       <c r="AC70" s="1"/>
       <c r="AD70" s="1"/>
     </row>
-    <row r="71" spans="1:30" ht="16.5">
+    <row r="71" spans="1:30" ht="16">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -3711,7 +3776,7 @@
       <c r="AC71" s="1"/>
       <c r="AD71" s="1"/>
     </row>
-    <row r="72" spans="1:30" ht="16.5">
+    <row r="72" spans="1:30" ht="16">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -3743,7 +3808,7 @@
       <c r="AC72" s="1"/>
       <c r="AD72" s="1"/>
     </row>
-    <row r="73" spans="1:30" ht="16.5">
+    <row r="73" spans="1:30" ht="16">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -3775,7 +3840,7 @@
       <c r="AC73" s="1"/>
       <c r="AD73" s="1"/>
     </row>
-    <row r="74" spans="1:30" ht="16.5">
+    <row r="74" spans="1:30" ht="16">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -3807,7 +3872,7 @@
       <c r="AC74" s="1"/>
       <c r="AD74" s="1"/>
     </row>
-    <row r="75" spans="1:30" ht="16.5">
+    <row r="75" spans="1:30" ht="16">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -3839,7 +3904,7 @@
       <c r="AC75" s="1"/>
       <c r="AD75" s="1"/>
     </row>
-    <row r="76" spans="1:30" ht="16.5">
+    <row r="76" spans="1:30" ht="16">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -3871,7 +3936,7 @@
       <c r="AC76" s="1"/>
       <c r="AD76" s="1"/>
     </row>
-    <row r="77" spans="1:30" ht="16.5">
+    <row r="77" spans="1:30" ht="16">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -3903,7 +3968,7 @@
       <c r="AC77" s="1"/>
       <c r="AD77" s="1"/>
     </row>
-    <row r="78" spans="1:30" ht="16.5">
+    <row r="78" spans="1:30" ht="16">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -3935,7 +4000,7 @@
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
     </row>
-    <row r="79" spans="1:30" ht="16.5">
+    <row r="79" spans="1:30" ht="16">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -3967,7 +4032,7 @@
       <c r="AC79" s="1"/>
       <c r="AD79" s="1"/>
     </row>
-    <row r="80" spans="1:30" ht="16.5">
+    <row r="80" spans="1:30" ht="16">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -3999,7 +4064,7 @@
       <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
     </row>
-    <row r="81" spans="1:30" ht="16.5">
+    <row r="81" spans="1:30" ht="16">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -4031,7 +4096,7 @@
       <c r="AC81" s="1"/>
       <c r="AD81" s="1"/>
     </row>
-    <row r="82" spans="1:30" ht="16.5">
+    <row r="82" spans="1:30" ht="16">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -4063,7 +4128,7 @@
       <c r="AC82" s="1"/>
       <c r="AD82" s="1"/>
     </row>
-    <row r="83" spans="1:30" ht="16.5">
+    <row r="83" spans="1:30" ht="16">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -4095,7 +4160,7 @@
       <c r="AC83" s="1"/>
       <c r="AD83" s="1"/>
     </row>
-    <row r="84" spans="1:30" ht="16.5">
+    <row r="84" spans="1:30" ht="16">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -4127,7 +4192,7 @@
       <c r="AC84" s="1"/>
       <c r="AD84" s="1"/>
     </row>
-    <row r="85" spans="1:30" ht="16.5">
+    <row r="85" spans="1:30" ht="16">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -4159,7 +4224,7 @@
       <c r="AC85" s="1"/>
       <c r="AD85" s="1"/>
     </row>
-    <row r="86" spans="1:30" ht="16.5">
+    <row r="86" spans="1:30" ht="16">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -4191,7 +4256,7 @@
       <c r="AC86" s="1"/>
       <c r="AD86" s="1"/>
     </row>
-    <row r="87" spans="1:30" ht="16.5">
+    <row r="87" spans="1:30" ht="16">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -4223,7 +4288,7 @@
       <c r="AC87" s="1"/>
       <c r="AD87" s="1"/>
     </row>
-    <row r="88" spans="1:30" ht="16.5">
+    <row r="88" spans="1:30" ht="16">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -4255,7 +4320,7 @@
       <c r="AC88" s="1"/>
       <c r="AD88" s="1"/>
     </row>
-    <row r="89" spans="1:30" ht="16.5">
+    <row r="89" spans="1:30" ht="16">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -4287,7 +4352,7 @@
       <c r="AC89" s="1"/>
       <c r="AD89" s="1"/>
     </row>
-    <row r="90" spans="1:30" ht="16.5">
+    <row r="90" spans="1:30" ht="16">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -4319,7 +4384,7 @@
       <c r="AC90" s="1"/>
       <c r="AD90" s="1"/>
     </row>
-    <row r="91" spans="1:30" ht="16.5">
+    <row r="91" spans="1:30" ht="16">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -4351,7 +4416,7 @@
       <c r="AC91" s="1"/>
       <c r="AD91" s="1"/>
     </row>
-    <row r="92" spans="1:30" ht="16.5">
+    <row r="92" spans="1:30" ht="16">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -4383,7 +4448,7 @@
       <c r="AC92" s="1"/>
       <c r="AD92" s="1"/>
     </row>
-    <row r="93" spans="1:30" ht="16.5">
+    <row r="93" spans="1:30" ht="16">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -4415,7 +4480,7 @@
       <c r="AC93" s="1"/>
       <c r="AD93" s="1"/>
     </row>
-    <row r="94" spans="1:30" ht="16.5">
+    <row r="94" spans="1:30" ht="16">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -4447,7 +4512,7 @@
       <c r="AC94" s="1"/>
       <c r="AD94" s="1"/>
     </row>
-    <row r="95" spans="1:30" ht="16.5">
+    <row r="95" spans="1:30" ht="16">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -4479,7 +4544,7 @@
       <c r="AC95" s="1"/>
       <c r="AD95" s="1"/>
     </row>
-    <row r="96" spans="1:30" ht="16.5">
+    <row r="96" spans="1:30" ht="16">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -4511,7 +4576,7 @@
       <c r="AC96" s="1"/>
       <c r="AD96" s="1"/>
     </row>
-    <row r="97" spans="1:30" ht="16.5">
+    <row r="97" spans="1:30" ht="16">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -4543,7 +4608,7 @@
       <c r="AC97" s="1"/>
       <c r="AD97" s="1"/>
     </row>
-    <row r="98" spans="1:30" ht="16.5">
+    <row r="98" spans="1:30" ht="16">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -4575,7 +4640,7 @@
       <c r="AC98" s="1"/>
       <c r="AD98" s="1"/>
     </row>
-    <row r="99" spans="1:30" ht="16.5">
+    <row r="99" spans="1:30" ht="16">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -4607,7 +4672,7 @@
       <c r="AC99" s="1"/>
       <c r="AD99" s="1"/>
     </row>
-    <row r="100" spans="1:30" ht="16.5">
+    <row r="100" spans="1:30" ht="16">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -4639,7 +4704,7 @@
       <c r="AC100" s="1"/>
       <c r="AD100" s="1"/>
     </row>
-    <row r="101" spans="1:30" ht="16.5">
+    <row r="101" spans="1:30" ht="16">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -4671,7 +4736,7 @@
       <c r="AC101" s="1"/>
       <c r="AD101" s="1"/>
     </row>
-    <row r="102" spans="1:30" ht="16.5">
+    <row r="102" spans="1:30" ht="16">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -4703,7 +4768,7 @@
       <c r="AC102" s="1"/>
       <c r="AD102" s="1"/>
     </row>
-    <row r="103" spans="1:30" ht="16.5">
+    <row r="103" spans="1:30" ht="16">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -4735,7 +4800,7 @@
       <c r="AC103" s="1"/>
       <c r="AD103" s="1"/>
     </row>
-    <row r="104" spans="1:30" ht="16.5">
+    <row r="104" spans="1:30" ht="16">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -4767,7 +4832,7 @@
       <c r="AC104" s="1"/>
       <c r="AD104" s="1"/>
     </row>
-    <row r="105" spans="1:30" ht="16.5">
+    <row r="105" spans="1:30" ht="16">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -4799,7 +4864,7 @@
       <c r="AC105" s="1"/>
       <c r="AD105" s="1"/>
     </row>
-    <row r="106" spans="1:30" ht="16.5">
+    <row r="106" spans="1:30" ht="16">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -4831,7 +4896,7 @@
       <c r="AC106" s="1"/>
       <c r="AD106" s="1"/>
     </row>
-    <row r="107" spans="1:30" ht="16.5">
+    <row r="107" spans="1:30" ht="16">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -4863,7 +4928,7 @@
       <c r="AC107" s="1"/>
       <c r="AD107" s="1"/>
     </row>
-    <row r="108" spans="1:30" ht="16.5">
+    <row r="108" spans="1:30" ht="16">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -4895,7 +4960,7 @@
       <c r="AC108" s="1"/>
       <c r="AD108" s="1"/>
     </row>
-    <row r="109" spans="1:30" ht="16.5">
+    <row r="109" spans="1:30" ht="16">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -4927,7 +4992,7 @@
       <c r="AC109" s="1"/>
       <c r="AD109" s="1"/>
     </row>
-    <row r="110" spans="1:30" ht="16.5">
+    <row r="110" spans="1:30" ht="16">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -4959,7 +5024,7 @@
       <c r="AC110" s="1"/>
       <c r="AD110" s="1"/>
     </row>
-    <row r="111" spans="1:30" ht="16.5">
+    <row r="111" spans="1:30" ht="16">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -4991,7 +5056,7 @@
       <c r="AC111" s="1"/>
       <c r="AD111" s="1"/>
     </row>
-    <row r="112" spans="1:30" ht="16.5">
+    <row r="112" spans="1:30" ht="16">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -5023,7 +5088,7 @@
       <c r="AC112" s="1"/>
       <c r="AD112" s="1"/>
     </row>
-    <row r="113" spans="1:30" ht="16.5">
+    <row r="113" spans="1:30" ht="16">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -5055,7 +5120,7 @@
       <c r="AC113" s="1"/>
       <c r="AD113" s="1"/>
     </row>
-    <row r="114" spans="1:30" ht="16.5">
+    <row r="114" spans="1:30" ht="16">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -5087,7 +5152,7 @@
       <c r="AC114" s="1"/>
       <c r="AD114" s="1"/>
     </row>
-    <row r="115" spans="1:30" ht="16.5">
+    <row r="115" spans="1:30" ht="16">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -5119,7 +5184,7 @@
       <c r="AC115" s="1"/>
       <c r="AD115" s="1"/>
     </row>
-    <row r="116" spans="1:30" ht="16.5">
+    <row r="116" spans="1:30" ht="16">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -5151,7 +5216,7 @@
       <c r="AC116" s="1"/>
       <c r="AD116" s="1"/>
     </row>
-    <row r="117" spans="1:30" ht="16.5">
+    <row r="117" spans="1:30" ht="16">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -5183,7 +5248,7 @@
       <c r="AC117" s="1"/>
       <c r="AD117" s="1"/>
     </row>
-    <row r="118" spans="1:30" ht="16.5">
+    <row r="118" spans="1:30" ht="16">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -5215,7 +5280,7 @@
       <c r="AC118" s="1"/>
       <c r="AD118" s="1"/>
     </row>
-    <row r="119" spans="1:30" ht="16.5">
+    <row r="119" spans="1:30" ht="16">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -5247,7 +5312,7 @@
       <c r="AC119" s="1"/>
       <c r="AD119" s="1"/>
     </row>
-    <row r="120" spans="1:30" ht="16.5">
+    <row r="120" spans="1:30" ht="16">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -5279,7 +5344,7 @@
       <c r="AC120" s="1"/>
       <c r="AD120" s="1"/>
     </row>
-    <row r="121" spans="1:30" ht="16.5">
+    <row r="121" spans="1:30" ht="16">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -5311,7 +5376,7 @@
       <c r="AC121" s="1"/>
       <c r="AD121" s="1"/>
     </row>
-    <row r="122" spans="1:30" ht="16.5">
+    <row r="122" spans="1:30" ht="16">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -5343,7 +5408,7 @@
       <c r="AC122" s="1"/>
       <c r="AD122" s="1"/>
     </row>
-    <row r="123" spans="1:30" ht="16.5">
+    <row r="123" spans="1:30" ht="16">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -5375,7 +5440,7 @@
       <c r="AC123" s="1"/>
       <c r="AD123" s="1"/>
     </row>
-    <row r="124" spans="1:30" ht="16.5">
+    <row r="124" spans="1:30" ht="16">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -5407,7 +5472,7 @@
       <c r="AC124" s="1"/>
       <c r="AD124" s="1"/>
     </row>
-    <row r="125" spans="1:30" ht="16.5">
+    <row r="125" spans="1:30" ht="16">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -5439,7 +5504,7 @@
       <c r="AC125" s="1"/>
       <c r="AD125" s="1"/>
     </row>
-    <row r="126" spans="1:30" ht="16.5">
+    <row r="126" spans="1:30" ht="16">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -5471,7 +5536,7 @@
       <c r="AC126" s="1"/>
       <c r="AD126" s="1"/>
     </row>
-    <row r="127" spans="1:30" ht="16.5">
+    <row r="127" spans="1:30" ht="16">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -5503,7 +5568,7 @@
       <c r="AC127" s="1"/>
       <c r="AD127" s="1"/>
     </row>
-    <row r="128" spans="1:30" ht="16.5">
+    <row r="128" spans="1:30" ht="16">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -5535,7 +5600,7 @@
       <c r="AC128" s="1"/>
       <c r="AD128" s="1"/>
     </row>
-    <row r="129" spans="1:30" ht="16.5">
+    <row r="129" spans="1:30" ht="16">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -5567,7 +5632,7 @@
       <c r="AC129" s="1"/>
       <c r="AD129" s="1"/>
     </row>
-    <row r="130" spans="1:30" ht="16.5">
+    <row r="130" spans="1:30" ht="16">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -5599,7 +5664,7 @@
       <c r="AC130" s="1"/>
       <c r="AD130" s="1"/>
     </row>
-    <row r="131" spans="1:30" ht="16.5">
+    <row r="131" spans="1:30" ht="16">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -5631,7 +5696,7 @@
       <c r="AC131" s="1"/>
       <c r="AD131" s="1"/>
     </row>
-    <row r="132" spans="1:30" ht="16.5">
+    <row r="132" spans="1:30" ht="16">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -5663,7 +5728,7 @@
       <c r="AC132" s="1"/>
       <c r="AD132" s="1"/>
     </row>
-    <row r="133" spans="1:30" ht="16.5">
+    <row r="133" spans="1:30" ht="16">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -5695,7 +5760,7 @@
       <c r="AC133" s="1"/>
       <c r="AD133" s="1"/>
     </row>
-    <row r="134" spans="1:30" ht="16.5">
+    <row r="134" spans="1:30" ht="16">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -5727,7 +5792,7 @@
       <c r="AC134" s="1"/>
       <c r="AD134" s="1"/>
     </row>
-    <row r="135" spans="1:30" ht="16.5">
+    <row r="135" spans="1:30" ht="16">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -5759,7 +5824,7 @@
       <c r="AC135" s="1"/>
       <c r="AD135" s="1"/>
     </row>
-    <row r="136" spans="1:30" ht="16.5">
+    <row r="136" spans="1:30" ht="16">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -5791,7 +5856,7 @@
       <c r="AC136" s="1"/>
       <c r="AD136" s="1"/>
     </row>
-    <row r="137" spans="1:30" ht="16.5">
+    <row r="137" spans="1:30" ht="16">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -5823,7 +5888,7 @@
       <c r="AC137" s="1"/>
       <c r="AD137" s="1"/>
     </row>
-    <row r="138" spans="1:30" ht="16.5">
+    <row r="138" spans="1:30" ht="16">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -5855,7 +5920,7 @@
       <c r="AC138" s="1"/>
       <c r="AD138" s="1"/>
     </row>
-    <row r="139" spans="1:30" ht="16.5">
+    <row r="139" spans="1:30" ht="16">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -5887,7 +5952,7 @@
       <c r="AC139" s="1"/>
       <c r="AD139" s="1"/>
     </row>
-    <row r="140" spans="1:30" ht="16.5">
+    <row r="140" spans="1:30" ht="16">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -5919,7 +5984,7 @@
       <c r="AC140" s="1"/>
       <c r="AD140" s="1"/>
     </row>
-    <row r="141" spans="1:30" ht="16.5">
+    <row r="141" spans="1:30" ht="16">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -5951,7 +6016,7 @@
       <c r="AC141" s="1"/>
       <c r="AD141" s="1"/>
     </row>
-    <row r="142" spans="1:30" ht="16.5">
+    <row r="142" spans="1:30" ht="16">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -5983,7 +6048,7 @@
       <c r="AC142" s="1"/>
       <c r="AD142" s="1"/>
     </row>
-    <row r="143" spans="1:30" ht="16.5">
+    <row r="143" spans="1:30" ht="16">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -6015,7 +6080,7 @@
       <c r="AC143" s="1"/>
       <c r="AD143" s="1"/>
     </row>
-    <row r="144" spans="1:30" ht="16.5">
+    <row r="144" spans="1:30" ht="16">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -6047,7 +6112,7 @@
       <c r="AC144" s="1"/>
       <c r="AD144" s="1"/>
     </row>
-    <row r="145" spans="1:30" ht="16.5">
+    <row r="145" spans="1:30" ht="16">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -6079,7 +6144,7 @@
       <c r="AC145" s="1"/>
       <c r="AD145" s="1"/>
     </row>
-    <row r="146" spans="1:30" ht="16.5">
+    <row r="146" spans="1:30" ht="16">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -6111,7 +6176,7 @@
       <c r="AC146" s="1"/>
       <c r="AD146" s="1"/>
     </row>
-    <row r="147" spans="1:30" ht="16.5">
+    <row r="147" spans="1:30" ht="16">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -6143,7 +6208,7 @@
       <c r="AC147" s="1"/>
       <c r="AD147" s="1"/>
     </row>
-    <row r="148" spans="1:30" ht="16.5">
+    <row r="148" spans="1:30" ht="16">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -6175,7 +6240,7 @@
       <c r="AC148" s="1"/>
       <c r="AD148" s="1"/>
     </row>
-    <row r="149" spans="1:30" ht="16.5">
+    <row r="149" spans="1:30" ht="16">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -6207,7 +6272,7 @@
       <c r="AC149" s="1"/>
       <c r="AD149" s="1"/>
     </row>
-    <row r="150" spans="1:30" ht="16.5">
+    <row r="150" spans="1:30" ht="16">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -6239,7 +6304,7 @@
       <c r="AC150" s="1"/>
       <c r="AD150" s="1"/>
     </row>
-    <row r="151" spans="1:30" ht="16.5">
+    <row r="151" spans="1:30" ht="16">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -6271,7 +6336,7 @@
       <c r="AC151" s="1"/>
       <c r="AD151" s="1"/>
     </row>
-    <row r="152" spans="1:30" ht="16.5">
+    <row r="152" spans="1:30" ht="16">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -6303,7 +6368,7 @@
       <c r="AC152" s="1"/>
       <c r="AD152" s="1"/>
     </row>
-    <row r="153" spans="1:30" ht="16.5">
+    <row r="153" spans="1:30" ht="16">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -6335,7 +6400,7 @@
       <c r="AC153" s="1"/>
       <c r="AD153" s="1"/>
     </row>
-    <row r="154" spans="1:30" ht="16.5">
+    <row r="154" spans="1:30" ht="16">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -6367,7 +6432,7 @@
       <c r="AC154" s="1"/>
       <c r="AD154" s="1"/>
     </row>
-    <row r="155" spans="1:30" ht="16.5">
+    <row r="155" spans="1:30" ht="16">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -6399,7 +6464,7 @@
       <c r="AC155" s="1"/>
       <c r="AD155" s="1"/>
     </row>
-    <row r="156" spans="1:30" ht="16.5">
+    <row r="156" spans="1:30" ht="16">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -6431,7 +6496,7 @@
       <c r="AC156" s="1"/>
       <c r="AD156" s="1"/>
     </row>
-    <row r="157" spans="1:30" ht="16.5">
+    <row r="157" spans="1:30" ht="16">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -6463,7 +6528,7 @@
       <c r="AC157" s="1"/>
       <c r="AD157" s="1"/>
     </row>
-    <row r="158" spans="1:30" ht="16.5">
+    <row r="158" spans="1:30" ht="16">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -6495,7 +6560,7 @@
       <c r="AC158" s="1"/>
       <c r="AD158" s="1"/>
     </row>
-    <row r="159" spans="1:30" ht="16.5">
+    <row r="159" spans="1:30" ht="16">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -6527,7 +6592,7 @@
       <c r="AC159" s="1"/>
       <c r="AD159" s="1"/>
     </row>
-    <row r="160" spans="1:30" ht="16.5">
+    <row r="160" spans="1:30" ht="16">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -6559,7 +6624,7 @@
       <c r="AC160" s="1"/>
       <c r="AD160" s="1"/>
     </row>
-    <row r="161" spans="1:30" ht="16.5">
+    <row r="161" spans="1:30" ht="16">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -6591,7 +6656,7 @@
       <c r="AC161" s="1"/>
       <c r="AD161" s="1"/>
     </row>
-    <row r="162" spans="1:30" ht="16.5">
+    <row r="162" spans="1:30" ht="16">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -6623,7 +6688,7 @@
       <c r="AC162" s="1"/>
       <c r="AD162" s="1"/>
     </row>
-    <row r="163" spans="1:30" ht="16.5">
+    <row r="163" spans="1:30" ht="16">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -6655,7 +6720,7 @@
       <c r="AC163" s="1"/>
       <c r="AD163" s="1"/>
     </row>
-    <row r="164" spans="1:30" ht="16.5">
+    <row r="164" spans="1:30" ht="16">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -6687,7 +6752,7 @@
       <c r="AC164" s="1"/>
       <c r="AD164" s="1"/>
     </row>
-    <row r="165" spans="1:30" ht="16.5">
+    <row r="165" spans="1:30" ht="16">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -6719,7 +6784,7 @@
       <c r="AC165" s="1"/>
       <c r="AD165" s="1"/>
     </row>
-    <row r="166" spans="1:30" ht="16.5">
+    <row r="166" spans="1:30" ht="16">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -6751,7 +6816,7 @@
       <c r="AC166" s="1"/>
       <c r="AD166" s="1"/>
     </row>
-    <row r="167" spans="1:30" ht="16.5">
+    <row r="167" spans="1:30" ht="16">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -6783,7 +6848,7 @@
       <c r="AC167" s="1"/>
       <c r="AD167" s="1"/>
     </row>
-    <row r="168" spans="1:30" ht="16.5">
+    <row r="168" spans="1:30" ht="16">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -6815,7 +6880,7 @@
       <c r="AC168" s="1"/>
       <c r="AD168" s="1"/>
     </row>
-    <row r="169" spans="1:30" ht="16.5">
+    <row r="169" spans="1:30" ht="16">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -6847,7 +6912,7 @@
       <c r="AC169" s="1"/>
       <c r="AD169" s="1"/>
     </row>
-    <row r="170" spans="1:30" ht="16.5">
+    <row r="170" spans="1:30" ht="16">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -6879,7 +6944,7 @@
       <c r="AC170" s="1"/>
       <c r="AD170" s="1"/>
     </row>
-    <row r="171" spans="1:30" ht="16.5">
+    <row r="171" spans="1:30" ht="16">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -6911,7 +6976,7 @@
       <c r="AC171" s="1"/>
       <c r="AD171" s="1"/>
     </row>
-    <row r="172" spans="1:30" ht="16.5">
+    <row r="172" spans="1:30" ht="16">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -6943,7 +7008,7 @@
       <c r="AC172" s="1"/>
       <c r="AD172" s="1"/>
     </row>
-    <row r="173" spans="1:30" ht="16.5">
+    <row r="173" spans="1:30" ht="16">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -6975,7 +7040,7 @@
       <c r="AC173" s="1"/>
       <c r="AD173" s="1"/>
     </row>
-    <row r="174" spans="1:30" ht="16.5">
+    <row r="174" spans="1:30" ht="16">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -7007,7 +7072,7 @@
       <c r="AC174" s="1"/>
       <c r="AD174" s="1"/>
     </row>
-    <row r="175" spans="1:30" ht="16.5">
+    <row r="175" spans="1:30" ht="16">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -7039,7 +7104,7 @@
       <c r="AC175" s="1"/>
       <c r="AD175" s="1"/>
     </row>
-    <row r="176" spans="1:30" ht="16.5">
+    <row r="176" spans="1:30" ht="16">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -7071,7 +7136,7 @@
       <c r="AC176" s="1"/>
       <c r="AD176" s="1"/>
     </row>
-    <row r="177" spans="1:30" ht="16.5">
+    <row r="177" spans="1:30" ht="16">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -7103,7 +7168,7 @@
       <c r="AC177" s="1"/>
       <c r="AD177" s="1"/>
     </row>
-    <row r="178" spans="1:30" ht="16.5">
+    <row r="178" spans="1:30" ht="16">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -7135,7 +7200,7 @@
       <c r="AC178" s="1"/>
       <c r="AD178" s="1"/>
     </row>
-    <row r="179" spans="1:30" ht="16.5">
+    <row r="179" spans="1:30" ht="16">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -7167,7 +7232,7 @@
       <c r="AC179" s="1"/>
       <c r="AD179" s="1"/>
     </row>
-    <row r="180" spans="1:30" ht="16.5">
+    <row r="180" spans="1:30" ht="16">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -7199,7 +7264,7 @@
       <c r="AC180" s="1"/>
       <c r="AD180" s="1"/>
     </row>
-    <row r="181" spans="1:30" ht="16.5">
+    <row r="181" spans="1:30" ht="16">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -7231,7 +7296,7 @@
       <c r="AC181" s="1"/>
       <c r="AD181" s="1"/>
     </row>
-    <row r="182" spans="1:30" ht="16.5">
+    <row r="182" spans="1:30" ht="16">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -7263,7 +7328,7 @@
       <c r="AC182" s="1"/>
       <c r="AD182" s="1"/>
     </row>
-    <row r="183" spans="1:30" ht="16.5">
+    <row r="183" spans="1:30" ht="16">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -7295,7 +7360,7 @@
       <c r="AC183" s="1"/>
       <c r="AD183" s="1"/>
     </row>
-    <row r="184" spans="1:30" ht="16.5">
+    <row r="184" spans="1:30" ht="16">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -7327,7 +7392,7 @@
       <c r="AC184" s="1"/>
       <c r="AD184" s="1"/>
     </row>
-    <row r="185" spans="1:30" ht="16.5">
+    <row r="185" spans="1:30" ht="16">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -7359,7 +7424,7 @@
       <c r="AC185" s="1"/>
       <c r="AD185" s="1"/>
     </row>
-    <row r="186" spans="1:30" ht="16.5">
+    <row r="186" spans="1:30" ht="16">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -7391,7 +7456,7 @@
       <c r="AC186" s="1"/>
       <c r="AD186" s="1"/>
     </row>
-    <row r="187" spans="1:30" ht="16.5">
+    <row r="187" spans="1:30" ht="16">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -7423,7 +7488,7 @@
       <c r="AC187" s="1"/>
       <c r="AD187" s="1"/>
     </row>
-    <row r="188" spans="1:30" ht="16.5">
+    <row r="188" spans="1:30" ht="16">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -7455,7 +7520,7 @@
       <c r="AC188" s="1"/>
       <c r="AD188" s="1"/>
     </row>
-    <row r="189" spans="1:30" ht="16.5">
+    <row r="189" spans="1:30" ht="16">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -7487,7 +7552,7 @@
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
     </row>
-    <row r="190" spans="1:30" ht="16.5">
+    <row r="190" spans="1:30" ht="16">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -7519,7 +7584,7 @@
       <c r="AC190" s="1"/>
       <c r="AD190" s="1"/>
     </row>
-    <row r="191" spans="1:30" ht="16.5">
+    <row r="191" spans="1:30" ht="16">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -7551,7 +7616,7 @@
       <c r="AC191" s="1"/>
       <c r="AD191" s="1"/>
     </row>
-    <row r="192" spans="1:30" ht="16.5">
+    <row r="192" spans="1:30" ht="16">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -7583,7 +7648,7 @@
       <c r="AC192" s="1"/>
       <c r="AD192" s="1"/>
     </row>
-    <row r="193" spans="1:30" ht="16.5">
+    <row r="193" spans="1:30" ht="16">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -7615,7 +7680,7 @@
       <c r="AC193" s="1"/>
       <c r="AD193" s="1"/>
     </row>
-    <row r="194" spans="1:30" ht="16.5">
+    <row r="194" spans="1:30" ht="16">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -7647,7 +7712,7 @@
       <c r="AC194" s="1"/>
       <c r="AD194" s="1"/>
     </row>
-    <row r="195" spans="1:30" ht="16.5">
+    <row r="195" spans="1:30" ht="16">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -7679,7 +7744,7 @@
       <c r="AC195" s="1"/>
       <c r="AD195" s="1"/>
     </row>
-    <row r="196" spans="1:30" ht="16.5">
+    <row r="196" spans="1:30" ht="16">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -7711,7 +7776,7 @@
       <c r="AC196" s="1"/>
       <c r="AD196" s="1"/>
     </row>
-    <row r="197" spans="1:30" ht="16.5">
+    <row r="197" spans="1:30" ht="16">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -7743,7 +7808,7 @@
       <c r="AC197" s="1"/>
       <c r="AD197" s="1"/>
     </row>
-    <row r="198" spans="1:30" ht="16.5">
+    <row r="198" spans="1:30" ht="16">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -7775,7 +7840,7 @@
       <c r="AC198" s="1"/>
       <c r="AD198" s="1"/>
     </row>
-    <row r="199" spans="1:30" ht="16.5">
+    <row r="199" spans="1:30" ht="16">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -7807,7 +7872,7 @@
       <c r="AC199" s="1"/>
       <c r="AD199" s="1"/>
     </row>
-    <row r="200" spans="1:30" ht="16.5">
+    <row r="200" spans="1:30" ht="16">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
